--- a/ppt/PythonEDXQuestion.xlsx
+++ b/ppt/PythonEDXQuestion.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naveen\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naveen.s\PycharmProjects\python_tutorial\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="List" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$A$1:$A$110</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
   <si>
     <t>import math 
 print(math.cos(math.pi)) 
@@ -315,12 +319,342 @@
   <si>
     <t>1; 2; 3; 4</t>
   </si>
+  <si>
+    <t>Sample List : ['abc', 'xyz', 'aba', '1221']</t>
+  </si>
+  <si>
+    <t>Expected Result : 2</t>
+  </si>
+  <si>
+    <t>Sample List : [(2, 5), (1, 2), (4, 4), (2, 3), (2, 1)]</t>
+  </si>
+  <si>
+    <t>Expected Result : [(2, 1), (1, 2), (2, 3), (4, 4), (2, 5)]</t>
+  </si>
+  <si>
+    <t>Sample List : ['Red', 'Green', 'White', 'Black', 'Pink', 'Yellow']</t>
+  </si>
+  <si>
+    <t>Expected Output : ['Green', 'White', 'Black']</t>
+  </si>
+  <si>
+    <t>Note: In mathematics, the sieve of Eratosthenes, (Ancient Greek: κόσκινον Ἐρατοσθένους, kóskinon Eratosthénous) one of a number of prime number sieves, is a simple, ancient algorithm for finding all prime numbers up to any given limit.</t>
+  </si>
+  <si>
+    <t>Sample list : ['p', 'q']</t>
+  </si>
+  <si>
+    <t>n =5</t>
+  </si>
+  <si>
+    <t>Sample Output : ['p1', 'q1', 'p2', 'q2', 'p3', 'q3', 'p4', 'q4', 'p5', 'q5']</t>
+  </si>
+  <si>
+    <t>Sample list: [0,1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>Expected Output: [1, 0, 3, 2, 5, 4]</t>
+  </si>
+  <si>
+    <t>Sample list: [11, 33, 50]</t>
+  </si>
+  <si>
+    <t>Expected Output: 113350</t>
+  </si>
+  <si>
+    <t>Sample data : Missing values in second list: b,a,c</t>
+  </si>
+  <si>
+    <t>Additional values in second list: g,h</t>
+  </si>
+  <si>
+    <t>Sample lists: ["Black", "Red", "Maroon", "Yellow"], ["#000000", "#FF0000", "#800000", "#FFFF00"]</t>
+  </si>
+  <si>
+    <t>Expected Output: [{'color_name': 'Black', 'color_code': '#000000'}, {'color_name': 'Red', 'color_code': '#FF0000'}, {'color_name': 'Maroon', 'color_code': '#800000'}, {'color_name': 'Yellow', 'color_code': '#FFFF00'}]</t>
+  </si>
+  <si>
+    <t>Sample list: ['a', 'b', 'c', 'd', 'e', 'f', 'g', 'h', 'i', 'j', 'k', 'l', 'm', 'n']</t>
+  </si>
+  <si>
+    <t>Expected Output: [['a', 'd', 'g', 'j', 'm'], ['b', 'e', 'h', 'k', 'n'], ['c', 'f', 'i', 'l']]</t>
+  </si>
+  <si>
+    <t>Sample data: ["red", "orange", "green", "blue", "white"], ["black", "yellow", "green", "blue"]</t>
+  </si>
+  <si>
+    <t>Expected Output: </t>
+  </si>
+  <si>
+    <t>Color1-Color2: ['white', 'orange', 'red']</t>
+  </si>
+  <si>
+    <t>Color2-Color1: ['black', 'yellow']</t>
+  </si>
+  <si>
+    <t>Sample data : [1, 3, 5, 7, 9, 10], [2, 4, 6, 8]</t>
+  </si>
+  <si>
+    <t>Expected Output: [1, 3, 5, 7, 9, 2, 4, 6, 8]</t>
+  </si>
+  <si>
+    <t>Sample list : [1,2,3,4], string : emp</t>
+  </si>
+  <si>
+    <t>Expected output : ['emp1', 'emp2', 'emp3', 'emp4']</t>
+  </si>
+  <si>
+    <t>Sample lists: [1,2,3], [4,5,6], [10,11,12], [7,8,9]</t>
+  </si>
+  <si>
+    <t>Expected Output: [10, 11, 12]</t>
+  </si>
+  <si>
+    <t>Sample data: [10, 20, 30]</t>
+  </si>
+  <si>
+    <t>[40, 50, 60]</t>
+  </si>
+  <si>
+    <t>Expected output : [40, 50, 60, 10, 20, 30]</t>
+  </si>
+  <si>
+    <t>Sample list : [[10, 20], [40], [30, 56, 25], [10, 20], [33], [40]]</t>
+  </si>
+  <si>
+    <t>New List : [[10, 20], [30, 56, 25], [33], [40]]</t>
+  </si>
+  <si>
+    <t>Sample list : [{},{},{}]</t>
+  </si>
+  <si>
+    <t>Return value : True</t>
+  </si>
+  <si>
+    <t>Sample list : [{1,2},{},{}]</t>
+  </si>
+  <si>
+    <t>Return value : False</t>
+  </si>
+  <si>
+    <t>1. Write a Python program to sum all the items in a list. </t>
+  </si>
+  <si>
+    <t>2. Write a Python program to multiplies all the items in a list. </t>
+  </si>
+  <si>
+    <t>3. Write a Python program to get the largest number from a list. </t>
+  </si>
+  <si>
+    <t>4. Write a Python program to get the smallest number from a list. </t>
+  </si>
+  <si>
+    <t>5. Write a Python program to count the number of strings where the string length is 2 or more and the first and last character are same from a given list of strings.  </t>
+  </si>
+  <si>
+    <t>6. Write a Python program to get a list, sorted in increasing order by the last element in each tuple from a given list of non-empty tuples.  </t>
+  </si>
+  <si>
+    <t>7. Write a Python program to remove duplicates from a list. </t>
+  </si>
+  <si>
+    <t>8. Write a Python program to check a list is empty or not. </t>
+  </si>
+  <si>
+    <t>9. Write a Python program to clone or copy a list. </t>
+  </si>
+  <si>
+    <t>10. Write a Python program to find the list of words that are longer than n from a given list of words. </t>
+  </si>
+  <si>
+    <t>11. Write a Python function that takes two lists and returns True if they have at least one common member. </t>
+  </si>
+  <si>
+    <t>12. Write a Python program to print a specified list after removing the 0th, 4th and 5th elements. </t>
+  </si>
+  <si>
+    <t>13. Write a Python program to generate a 3*4*6 3D array whose each element is *. </t>
+  </si>
+  <si>
+    <t>14. Write a Python program to print the numbers of a specified list after removing even numbers from it. </t>
+  </si>
+  <si>
+    <t>15. Write a Python program to shuffle and print a specified list. </t>
+  </si>
+  <si>
+    <t>16. Write a Python program to generate and print a list of first and last 5 elements where the values are square of numbers between 1 and 30 (both included). </t>
+  </si>
+  <si>
+    <t>17. Write a Python program to generate and print a list except for the first 5 elements, where the values are square of numbers between 1 and 30 (both included). </t>
+  </si>
+  <si>
+    <t>18. Write a Python program to generate all permutations of a list in Python. </t>
+  </si>
+  <si>
+    <t>19. Write a Python program to get the difference between the two lists. </t>
+  </si>
+  <si>
+    <t>20. Write a Python program access the index of a list. </t>
+  </si>
+  <si>
+    <t>21. Write a Python program to convert a list of characters into a string. </t>
+  </si>
+  <si>
+    <t>22. Write a Python program to find the index of an item in a specified list. </t>
+  </si>
+  <si>
+    <t>23. Write a Python program to flatten a shallow list. </t>
+  </si>
+  <si>
+    <t>24. Write a Python program to append a list to the second list. </t>
+  </si>
+  <si>
+    <t>25. Write a Python program to select an item randomly from a list. </t>
+  </si>
+  <si>
+    <t>26. Write a python program to check whether two lists are circularly identical. </t>
+  </si>
+  <si>
+    <t>27. Write a Python program to find the second smallest number in a list. </t>
+  </si>
+  <si>
+    <t>28. Write a Python program to find the second largest number in a list. </t>
+  </si>
+  <si>
+    <t>29. Write a Python program to get unique values from a list. </t>
+  </si>
+  <si>
+    <t>30. Write a Python program to get the frequency of the elements in a list. </t>
+  </si>
+  <si>
+    <t>31. Write a Python program to count the number of elements in a list within a specified range. </t>
+  </si>
+  <si>
+    <t>32. Write a Python program to check whether a list contains a sublist. </t>
+  </si>
+  <si>
+    <t>33. Write a Python program to generate all sublists of a list. </t>
+  </si>
+  <si>
+    <t>34. Write a Python program using Sieve of Eratosthenes method for computing primes upto a specified number. </t>
+  </si>
+  <si>
+    <t>35. Write a Python program to create a list by concatenating a given list which range goes from 1 to n. </t>
+  </si>
+  <si>
+    <t>36. Write a Python program to get variable unique identification number or string. </t>
+  </si>
+  <si>
+    <t>37. Write a Python program to find common items from two lists. </t>
+  </si>
+  <si>
+    <t>38. Write a Python program to change the position of every n-th value with the (n+1)th in a list. </t>
+  </si>
+  <si>
+    <t>39. Write a Python program to convert a list of multiple integers into a single integer. </t>
+  </si>
+  <si>
+    <t>40. Write a Python program to split a list based on first character of word. </t>
+  </si>
+  <si>
+    <t>41. Write a Python program to create multiple lists. </t>
+  </si>
+  <si>
+    <t>42. Write a Python program to find missing and additional values in two lists. </t>
+  </si>
+  <si>
+    <t>43. Write a Python program to split a list into different variables. </t>
+  </si>
+  <si>
+    <t>44. Write a Python program to generate groups of five consecutive numbers in a list. </t>
+  </si>
+  <si>
+    <t>45. Write a Python program to convert a pair of values into a sorted unique array. </t>
+  </si>
+  <si>
+    <t>46. Write a Python program to select the odd items of a list. </t>
+  </si>
+  <si>
+    <t>47. Write a Python program to insert an element before each element of a list. </t>
+  </si>
+  <si>
+    <t>48. Write a Python program to print a nested lists (each list on a new line) using the print() function. </t>
+  </si>
+  <si>
+    <t>49. Write a Python program to convert list to list of dictionaries. </t>
+  </si>
+  <si>
+    <t>50. Write a Python program to sort a list of nested dictionaries. </t>
+  </si>
+  <si>
+    <t>51. Write a Python program to split a list every Nth element. </t>
+  </si>
+  <si>
+    <t>52. Write a Python program to compute the similarity between two lists. </t>
+  </si>
+  <si>
+    <t>53. Write a Python program to create a list with infinite elements. </t>
+  </si>
+  <si>
+    <t>54. Write a Python program to concatenate elements of a list. </t>
+  </si>
+  <si>
+    <t>55. Write a Python program to remove key values pairs from a list of dictionaries. </t>
+  </si>
+  <si>
+    <t>56. Write a Python program to convert a string to a list. </t>
+  </si>
+  <si>
+    <t>57. Write a Python program to check if all items of a list is equal to a given string. </t>
+  </si>
+  <si>
+    <t>58. Write a Python program to replace the last element in a list with another list. </t>
+  </si>
+  <si>
+    <t>59. Write a Python program to check if the n-th element exists in a given list. </t>
+  </si>
+  <si>
+    <t>60. Write a Python program to find a tuple, the smallest second index value from a list of tuples. </t>
+  </si>
+  <si>
+    <t>61. Write a Python program to create a list of empty dictionaries. </t>
+  </si>
+  <si>
+    <t>62. Write a Python program to print a list of space-separated elements. </t>
+  </si>
+  <si>
+    <t>63. Write a Python program to insert a given string at the beginning of all items in a list. </t>
+  </si>
+  <si>
+    <t>64. Write a Python program to iterate over two lists simultaneously. </t>
+  </si>
+  <si>
+    <t>65. Write a Python program to access dictionary keys element by index. </t>
+  </si>
+  <si>
+    <t>66. Write a Python program to find the list in a list of lists whose sum of elements is the highest. </t>
+  </si>
+  <si>
+    <t>67. Write a Python program to find all the values in a list are greater than a specified number. </t>
+  </si>
+  <si>
+    <t>68. Write a Python program to extend a list without append. </t>
+  </si>
+  <si>
+    <t>69. Write a Python program to remove duplicates from a list of lists. </t>
+  </si>
+  <si>
+    <t>70. Write a Python program to get the depth of a dictionary. </t>
+  </si>
+  <si>
+    <t>71. Write a Python program to check if all dictionaries in a list are empty or not. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +682,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -378,6 +718,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +1004,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,4 +1400,574 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="135.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A110"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ppt/PythonEDXQuestion.xlsx
+++ b/ppt/PythonEDXQuestion.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="List" sheetId="3" r:id="rId2"/>
+    <sheet name="oopsconcept" sheetId="4" r:id="rId3"/>
+    <sheet name="function" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">function!$A$1:$B$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$A$1:$A$110</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
   <si>
     <t>import math 
 print(math.cos(math.pi)) 
@@ -648,6 +651,105 @@
   </si>
   <si>
     <t>71. Write a Python program to check if all dictionaries in a list are empty or not. </t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Create a Cricle class and intialize it with radius. Make two methods getArea and getCircumference inside this class.</t>
+  </si>
+  <si>
+    <t>Create a Temprature class. Make two methods :
+1. convertFahrenheit - It will take celsius and will print it into Fahrenheit.
+2. convertCelsius - It will take Fahrenheit and will convert it into Celsius.</t>
+  </si>
+  <si>
+    <t>Create a Student class and initialize it with name and roll number. Make methods to :
+1. Display - It should display all informations of the student.
+2. setAge - It should assign age to student
+3. setMarks - It should assign marks to the student.</t>
+  </si>
+  <si>
+    <t>Create a Time class and initialize it with hours and minutes.
+1. Make a method addTime which should take two time object and add them. E.g.- (2 hour and 50 min)+(1 hr and 20 min) is (4 hr and 10 min)
+2. Make a method displayTime which should print the time.
+3. Make a method DisplayMinute which should display the total minutes in the Time. E.g.- (1 hr 2 min) should display 62 minute.</t>
+  </si>
+  <si>
+    <t>Write a Python class to get all possible unique subsets from a set of distinct integers.
+Input : [4, 5, 6]
+Output : [[], [6], [5], [5, 6], [4], [4, 6], [4, 5], [4, 5, 6]]</t>
+  </si>
+  <si>
+    <t>Write a Python class which has two methods get_String and print_String. get_String accept a string from the user and print_String print the string in upper case.</t>
+  </si>
+  <si>
+    <t>Write a Python class to reverse a string word by word.
+Input string : 'hello .py'
+Expected Output : '.py hello'</t>
+  </si>
+  <si>
+    <t>Write a Python function to find the Max of three numbers. Go to the editor</t>
+  </si>
+  <si>
+    <t>Write a Python function to sum all the numbers in a list. Go to the editor
+Sample List : (8, 2, 3, 0, 7)
+Expected Output : 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Python function to multiply all the numbers in a list. Go to the editor
+Sample List : (8, 2, 3, -1, 7)
+Expected Output : -336 
+</t>
+  </si>
+  <si>
+    <t>Write a Python function that accepts a string and calculate the number of upper case letters and lower case letters. Go to the editor
+Sample String : 'The quick Brow Fox'
+Expected Output : 
+No. of Upper case characters : 3
+No. of Lower case Characters : 12</t>
+  </si>
+  <si>
+    <t>Write a Python program to reverse a string. Go to the editor
+Sample String : "1234abcd"
+Expected Output : "dcba4321"</t>
+  </si>
+  <si>
+    <t>Write a Python function to calculate the factorial of a number (a non-negative integer). The function accepts the number as an argument. Go to the editor</t>
+  </si>
+  <si>
+    <t>Write a Python function to check whether a number is in a given range. Go to the editor</t>
+  </si>
+  <si>
+    <t>Write a Python function that takes a list and returns a new list with unique elements of the first list. Go to the editor
+Sample List : [1,2,3,3,3,3,4,5]
+Unique List : [1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>Write a Python function that takes a number as a parameter and check the number is prime or not. Go to the editor
+Note : A prime number (or a prime) is a natural number greater than 1 and that has no positive divisors other than 1 and itself. </t>
+  </si>
+  <si>
+    <t>Write a Python program to print the even numbers from a given list. Go to the editor
+Sample List : [1, 2, 3, 4, 5, 6, 7, 8, 9] 
+Expected Result : [2, 4, 6, 8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Python function to check whether a number is perfect or not. Go to the editor
+According to Wikipedia : In number theory, a perfect number is a positive integer that is equal to the sum of its proper positive divisors, that is, the sum of its positive divisors excluding the number itself (also known as its aliquot sum). Equivalently, a perfect number is a number that is half the sum of all of its positive divisors (including itself).
+Example : The first perfect number is 6, because 1, 2, and 3 are its proper positive divisors, and 1 + 2 + 3 = 6. Equivalently, the number 6 is equal to half the sum of all its positive divisors: ( 1 + 2 + 3 + 6 ) / 2 = 6. The next perfect number is 28 = 1 + 2 + 4 + 7 + 14. This is followed by the perfect numbers 496 and 8128. 
+</t>
+  </si>
+  <si>
+    <t>Write a Python function that checks whether a passed string is palindrome or not. Go to the editor
+Note: A palindrome is a word, phrase, or sequence that reads the same backward as forward, e.g., madam or nurses run.</t>
+  </si>
+  <si>
+    <t>Write a Python function that prints out the first n rows of Pascal's triangle. Go to the editor
+Note : Pascal's triangle is an arithmetic and geometric figure first imagined by Blaise Pascal.</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1717,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>69</v>
       </c>
@@ -1740,12 +1842,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -1775,7 +1877,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>83</v>
       </c>
@@ -1970,4 +2072,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="54.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="56" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ppt/PythonEDXQuestion.xlsx
+++ b/ppt/PythonEDXQuestion.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="List" sheetId="3" r:id="rId2"/>
-    <sheet name="oopsconcept" sheetId="4" r:id="rId3"/>
-    <sheet name="function" sheetId="5" r:id="rId4"/>
+    <sheet name="Misc" sheetId="8" r:id="rId3"/>
+    <sheet name="oopsconcept" sheetId="4" r:id="rId4"/>
+    <sheet name="string" sheetId="7" r:id="rId5"/>
+    <sheet name="function" sheetId="5" r:id="rId6"/>
+    <sheet name="conditionalloop" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">function!$A$1:$B$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">function!$A$1:$B$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$A$1:$A$110</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="245">
   <si>
     <t>import math 
 print(math.cos(math.pi)) 
@@ -751,12 +754,191 @@
     <t>Write a Python function that prints out the first n rows of Pascal's triangle. Go to the editor
 Note : Pascal's triangle is an arithmetic and geometric figure first imagined by Blaise Pascal.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Write a Python program to convert temperatures to and from celsius, fahrenheit.
+[ Formula : c/5 = f-32/9 [ where c = temperature in celsius and f = temperature in fahrenheit ] </t>
+  </si>
+  <si>
+    <t>Write a Python program to construct the following pattern, using a nested for loop.
+* 
+* * 
+* * * 
+* * * * 
+* * * * * 
+* * * * 
+* * * 
+* * 
+*</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Write a Python program that accepts a sequence of lines (blank line to terminate) as input and prints the lines as output (all characters in lower case).</t>
+    </r>
+  </si>
+  <si>
+    <t>Write a Python program to check the validity of password input by users
+Validation :
+At least 1 letter between [a-z] and 1 letter between [A-Z].
+At least 1 number between [0-9].
+At least 1 character from [$#@].
+Minimum length 6 characters.
+Maximum length 16 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Write a Python program to check whether an alphabet is a vowel or consonant.
+Input a letter of the alphabet: t                                       
+t is a consonant.</t>
+  </si>
+  <si>
+    <t>Write a Python program to find those numbers which are divisible by 7 and multiple of 5, between 1300 and 1900 (both included).</t>
+  </si>
+  <si>
+    <t>Write a Python program to create a Caesar encryption</t>
+  </si>
+  <si>
+    <t>Write a Python program to find the first repeated character in a given string.</t>
+  </si>
+  <si>
+    <t>Write a Python program to remove spaces from a given string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Python script that takes input from the user and displays that input back in upper and lower cases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Python function to reverses a string if it's length is a multiple of 4. </t>
+  </si>
+  <si>
+    <t>Write a Python function that takes a list of words and returns the length of the longest one.</t>
+  </si>
+  <si>
+    <t>Write a Python program to change a given string to a new string where the first and last chars have been exchanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Python program to remove the characters which have odd index values of a given string. </t>
+  </si>
+  <si>
+    <t>Exchange the Values of Two Numbers Without Using a Temporary Variable</t>
+  </si>
+  <si>
+    <t>Read a number n and Compute n+nn+nnn</t>
+  </si>
+  <si>
+    <t>Reverse a Given Number</t>
+  </si>
+  <si>
+    <t>Check Whether a Number is Positive or Negative</t>
+  </si>
+  <si>
+    <t>Print all Numbers in a Range Divisible by a Given Number</t>
+  </si>
+  <si>
+    <t>Count the Number of Digits in a Number</t>
+  </si>
+  <si>
+    <t>Inverted Star Pattern</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>-----------</t>
+  </si>
+  <si>
+    <t>1. find row with maximum number of 5’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input: matrix =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[0, 5, 6, 9],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [1, 0, 3, 8],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [1, 7, 9, 0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [0, 5, 0, 5]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Output: 2</t>
+  </si>
+  <si>
+    <t>2. Numbers in a list within a given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input : [56, 60, 23, 30, 56, 87, 77, 88, 100] range: 60-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Output : 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input : [1, 25, 36, 43, 52, 23, 5, 7, 87] range: 0-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Output : 3</t>
+  </si>
+  <si>
+    <t>3. Check if all the values in a list that are greater than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input : list = [15, 26, 73, 4, 8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            given value = 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Output : No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input : list = [90, 98, 90, 96, 81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            given value = 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Output : Yes</t>
+  </si>
+  <si>
+    <t>4. List Comprehension to find pair with given sum from two arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input :  list1 = [14, 5, 4, 7, 31, 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             list2 = [-20, -45, -3, 6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ans = 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Output : [(14,-3),(5,6),(31,-20),(5,6)]</t>
+  </si>
+  <si>
+    <t>5. Get unique values from a list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input : 90 56 89 78 56 90 74 89 74 89 56 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Output : 90 56 89 78 74</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +972,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16.8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -811,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -822,6 +1010,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,7 +1706,7 @@
   <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2076,10 +2273,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:A44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="141" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,12 +2564,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="52.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,4 +2776,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>